--- a/only_clean_versions/sectoral_models/pyresults_tab.xlsx
+++ b/only_clean_versions/sectoral_models/pyresults_tab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iwhn\Daten\vwgr\SME\Paper_1\cleaned_code_and_data\panelresults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iwhn\Daten\VWGR\SME\Paper_1\cleaned_code_and_data\panelresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024350F4-5558-496A-811B-F4FC7CBE5578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5A920-20B5-42E5-8099-53ECBE1E143C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28320" windowHeight="14040" activeTab="2" xr2:uid="{B40B2C28-E35C-4079-B596-45BCBA3A9510}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21120" windowHeight="11340" activeTab="2" xr2:uid="{B40B2C28-E35C-4079-B596-45BCBA3A9510}"/>
   </bookViews>
   <sheets>
     <sheet name="gdppc" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>coefs</t>
   </si>
@@ -229,7 +229,22 @@
     <t>Sectors B to E respond negatively to high precipiation and high variation in daily precipitation. The second degree impact of temperature shock is negative, similar to sector A.</t>
   </si>
   <si>
-    <t>Sectors G to I respond negatively to cold days and to wet events. The second degree effect of temperature shock positive here, but maybe this is the nature of the industry and something systemic.</t>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Number of Counties</t>
+  </si>
+  <si>
+    <t>1997 to 2019</t>
+  </si>
+  <si>
+    <t>Total Observations</t>
+  </si>
+  <si>
+    <t>1996 to 2019</t>
+  </si>
+  <si>
+    <t>Sectors G to I respond negatively to cold days and to dry events. The second degree effect of temperature shock positive here, but maybe this is the nature of the industry and something systemic.</t>
   </si>
 </sst>
 </file>
@@ -284,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,7 +313,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,18 +323,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,36 +688,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -1197,175 +1215,175 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>1.642E-3</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9">
+      <c r="F16" s="11"/>
+      <c r="G16" s="12">
         <v>2.0639999999999999E-3</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
         <v>2.441E-3</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
         <v>1.853E-3</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
         <v>1.8240000000000001E-3</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9">
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
         <v>2.3770000000000002E-3</v>
       </c>
-      <c r="P16" s="9"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>0.23058699999999999</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9">
+      <c r="F17" s="11"/>
+      <c r="G17" s="12">
         <v>0.23875199999999999</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
         <v>0.24449299999999999</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
         <v>0.23075000000000001</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>0.238569</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
         <v>0.24444399999999999</v>
       </c>
-      <c r="P17" s="9"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
+      <c r="N18" s="12"/>
+      <c r="O18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="9"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P19" s="9"/>
+      <c r="P19" s="12"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
+      <c r="N20" s="12"/>
+      <c r="O20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="9"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9" t="s">
+      <c r="N21" s="12"/>
+      <c r="O21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="9"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -1413,11 +1431,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O21:P21"/>
@@ -1432,30 +1469,11 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1463,39 +1481,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A24954-A343-4C8E-B457-EE4451217655}">
-  <dimension ref="E3:P32"/>
+  <dimension ref="C3:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:K25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="13" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F3" s="10" t="s">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -1515,643 +1539,713 @@
       <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="6">
+        <v>-0.194837285469324</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.285854913992316</v>
+      </c>
       <c r="F5" s="6">
-        <v>-0.21205931338108999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.26987744706088201</v>
+        <v>-8.8541355888394693E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.32770097866333298</v>
       </c>
       <c r="H5" s="6">
-        <v>-9.6431598648629199E-2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.31608136187600699</v>
+        <v>9.7227965881210195E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.90113668980975004</v>
       </c>
       <c r="J5" s="6">
-        <v>1.0532947879682199E-2</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0.89844095895466602</v>
-      </c>
-      <c r="L5" s="6">
-        <v>3.8924451668380003E-2</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.31150298695436202</v>
-      </c>
-    </row>
-    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+        <v>4.1951024873220902E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.25857719469979601</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8">
-        <v>-2.6463462055865399E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>8.3908644500592405E-5</v>
+      <c r="D6" s="7">
+        <v>-2.5068954670882399E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.0505140721427199E-4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-5.846024175931E-4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.103183370010271</v>
       </c>
       <c r="H6" s="6">
-        <v>-5.3685054779998198E-4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.15551366882015999</v>
+        <v>-1.7392518225094899E-4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.59296353530524504</v>
       </c>
       <c r="J6" s="6">
-        <v>-1.2357049265753601E-4</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.71784221969417294</v>
-      </c>
-      <c r="L6" s="6">
-        <v>-1.9422176682670699E-4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0.28241530823625899</v>
-      </c>
-      <c r="P6" t="s">
+        <v>-2.1340425057600799E-4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.21271719133669401</v>
+      </c>
+      <c r="N6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="6">
+        <v>2.4430249622466298E-4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.48564434696298397</v>
+      </c>
       <c r="F7" s="6">
-        <v>2.5379045871209603E-4</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.47722250635242303</v>
+        <v>-1.00887577458895E-4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.628922389649475</v>
       </c>
       <c r="H7" s="6">
-        <v>-1.19769012448882E-4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.57379836596175104</v>
+        <v>7.7950305037262496E-5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.70365883618945002</v>
       </c>
       <c r="J7" s="6">
-        <v>8.9525757624919894E-5</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.67066070158444602</v>
-      </c>
-      <c r="L7" s="6">
-        <v>7.6086027789980105E-5</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.46619302455436401</v>
-      </c>
-      <c r="P7" t="s">
+        <v>6.1403748236229101E-5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.54839116679852395</v>
+      </c>
+      <c r="N7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8">
-        <v>6.3459790683235301E-4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3.3976874351216602E-2</v>
+      <c r="D8" s="7">
+        <v>5.7560661346454901E-4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.4798747161595903E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-4.9141872489219697E-6</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.98193062108352103</v>
       </c>
       <c r="H8" s="6">
-        <v>5.3053594916655898E-6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.98121411046642104</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1.53814042035997E-4</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.391219747459017</v>
-      </c>
-      <c r="L8" s="8">
-        <v>-1.5188325336523001E-4</v>
-      </c>
-      <c r="M8" s="7">
-        <v>6.0416003624911598E-2</v>
-      </c>
-      <c r="P8" t="s">
+        <v>1.50143066771785E-4</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.38134346148999898</v>
+      </c>
+      <c r="J8" s="7">
+        <v>-1.3420060215959E-4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>8.8139367078053296E-2</v>
+      </c>
+      <c r="N8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6">
-        <v>1.9645167309765301E-3</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.17662542256163299</v>
-      </c>
-      <c r="H9" s="8">
-        <v>-2.1342352526008E-3</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2.4050540413278899E-2</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1.3297688245066299E-3</v>
-      </c>
-      <c r="K9" s="7">
-        <v>8.8989155379209206E-2</v>
-      </c>
-      <c r="L9" s="6">
-        <v>3.6591694579113599E-4</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.31008565070953897</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="D9" s="6">
+        <v>1.90185336029835E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.172734108564912</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-2.0684996662964799E-3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.3204183896334898E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.29385682919752E-3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8.2345569319129605E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4.2157851602870201E-4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.22009923538142701</v>
+      </c>
+      <c r="N9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="6">
+        <v>1.3430755825904001E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.21742364472106199</v>
+      </c>
       <c r="F10" s="6">
-        <v>1.46294873674397E-2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.204936166531033</v>
+        <v>8.7976566423814493E-3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.21876364108296401</v>
       </c>
       <c r="H10" s="6">
-        <v>1.1172175085058101E-2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.140267224618705</v>
-      </c>
-      <c r="J10" s="8">
-        <v>-1.3117210013151401E-2</v>
-      </c>
-      <c r="K10" s="7">
-        <v>4.0617280087400898E-2</v>
-      </c>
-      <c r="L10" s="6">
-        <v>-1.6534587289791199E-3</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.60220042587929001</v>
-      </c>
-      <c r="P10" t="s">
+        <v>-1.2586070589769301E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4.0378973287155201E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-5.8086720119262104E-4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.84632695876447706</v>
+      </c>
+      <c r="N10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="8">
-        <v>2.09481357353309E-2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4.9598090855131104E-4</v>
+      <c r="D11" s="7">
+        <v>2.10527304581745E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.3365255276987098E-4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-6.7967643246553602E-3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6.8883127510136005E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>-7.3393989286789996E-3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5.6851309384572897E-2</v>
+        <v>3.0080100458557599E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.29910076184545897</v>
       </c>
       <c r="J11" s="6">
-        <v>2.8761215651579501E-3</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.33659912040961298</v>
-      </c>
-      <c r="L11" s="6">
-        <v>-1.5728794222730001E-3</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.26746385033887199</v>
-      </c>
-      <c r="P11" t="s">
+        <v>-1.4322003398306901E-3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.295919661658199</v>
+      </c>
+      <c r="N11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="6">
+        <v>2.0942366799730699E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.22416715155568301</v>
+      </c>
       <c r="F12" s="6">
-        <v>2.26969780417994E-2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.21165864761099501</v>
+        <v>9.9309367142407599E-3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.24483294579176201</v>
       </c>
       <c r="H12" s="6">
-        <v>1.0399200688498301E-2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0.25263679994112398</v>
+        <v>-1.47057822305626E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.843512797400644</v>
       </c>
       <c r="J12" s="6">
-        <v>-2.29887570855463E-3</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0.77052552171178401</v>
-      </c>
-      <c r="L12" s="6">
-        <v>-1.2968348793597701E-3</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0.71790840640624298</v>
-      </c>
-      <c r="P12" t="s">
+        <v>-9.984493280800269E-4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.77285614788107404</v>
+      </c>
+      <c r="N12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
-        <v>-1.51082503548843E-3</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.134537037689198</v>
-      </c>
-      <c r="H13" s="8">
-        <v>-1.3744843078434699E-3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2.1676600740478998E-2</v>
-      </c>
-      <c r="J13" s="6">
-        <v>4.7485623180264997E-5</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0.93261281964380505</v>
-      </c>
-      <c r="L13" s="6">
-        <v>9.6774382895714595E-4</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9.6957584399871496E-4</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="D13" s="6">
+        <v>-1.36870741161394E-3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.13925052764002399</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-1.1846776489038799E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3.29252354899933E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7.2534276971068294E-5</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.88981248540570701</v>
+      </c>
+      <c r="J13" s="7">
+        <v>9.4856661088155202E-4</v>
+      </c>
+      <c r="K13" s="6">
+        <v>5.0684457433082595E-4</v>
+      </c>
+      <c r="N13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="D14" s="6">
+        <v>-4.3046448559903097E-3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.29865060791814502</v>
+      </c>
       <c r="F14" s="6">
-        <v>-5.0203399980539402E-3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.26166496484714402</v>
+        <v>-1.65494288002923E-3</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.55030337192609402</v>
       </c>
       <c r="H14" s="6">
-        <v>-2.9157926299828401E-3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0.33874717198267701</v>
+        <v>2.8561400574116901E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.23089243198076101</v>
       </c>
       <c r="J14" s="6">
-        <v>3.14428027523942E-3</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0.228151393403728</v>
-      </c>
-      <c r="L14" s="6">
-        <v>8.6917398329487499E-4</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0.50801985295892504</v>
-      </c>
-      <c r="P14" t="s">
+        <v>2.3656529820044399E-4</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.84518328727617997</v>
+      </c>
+      <c r="N14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
+      <c r="D15" s="7">
+        <v>-3.7414812685547701E-4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.6856957758535501E-2</v>
+      </c>
       <c r="F15" s="6">
-        <v>-3.5483033993202501E-4</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2.86172771243959E-2</v>
+        <v>-8.2745511408855701E-5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.37637204118963102</v>
       </c>
       <c r="H15" s="6">
-        <v>-5.3361012354555902E-5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0.57772003135106598</v>
+        <v>5.7524733760998698E-5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.50866843679813101</v>
       </c>
       <c r="J15" s="6">
-        <v>5.7836816149490201E-5</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.52697873807613904</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1.86759554593536E-5</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0.64553094857332405</v>
-      </c>
-      <c r="P15" t="s">
+        <v>2.2343529292238899E-5</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.56723977581115304</v>
+      </c>
+      <c r="N15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="10">
-        <v>9.1629589527379898E-3</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9">
-        <v>3.50815715499497E-3</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9">
-        <v>1.1881798938009299E-3</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9">
-        <v>5.0446420960282802E-3</v>
-      </c>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="D16" s="14">
+        <v>9.1982541982540394E-3</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>3.2337346296451501E-3</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
+        <v>1.1416531603855001E-3</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14">
+        <v>5.4082004913923402E-3</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="10">
-        <v>0.26171921357160199</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9">
-        <v>0.19982581648705</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9">
-        <v>-4.1359001591142697E-2</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9">
-        <v>0.306625382410532</v>
-      </c>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="D17" s="14">
+        <v>0.27834562388654599</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>0.204149606332935</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <v>-3.06596084511838E-2</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14">
+        <v>0.31544260085348402</v>
+      </c>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="14" t="s">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="12">
+        <v>400</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11">
+        <v>400</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <v>400</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
+        <v>400</v>
+      </c>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="12">
+        <v>9600</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11">
+        <v>9600</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <v>9600</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11">
+        <v>9600</v>
+      </c>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="11" t="s">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="11" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="E24:K25"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
+  <mergeCells count="48">
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="C32:I33"/>
+    <mergeCell ref="C34:I35"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C30:I31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E27:K28"/>
-    <mergeCell ref="E29:K30"/>
-    <mergeCell ref="E31:K32"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C27:I28"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF4470-A584-4CC2-A188-2F94945AE9B8}">
-  <dimension ref="F2:N32"/>
+  <dimension ref="F2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,25 +2254,25 @@
     <col min="7" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G2" s="10" t="s">
+    <row r="2" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>27</v>
       </c>
@@ -2207,364 +2301,367 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8">
-        <v>-0.35516855503572398</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7.7624775204787999E-2</v>
+      <c r="G4" s="7">
+        <v>-0.33984288741260699</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7.4382010611837301E-2</v>
       </c>
       <c r="I4" s="6">
-        <v>-0.143619634762708</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.15454740700189301</v>
+        <v>-0.14051904474576399</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.13638221774873299</v>
       </c>
       <c r="K4" s="6">
-        <v>1.10871272318061E-3</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0.98978320543159903</v>
+        <v>-2.2415857332488002E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.97816545200048699</v>
       </c>
       <c r="M4" s="6">
-        <v>5.78424562645957E-2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0.136504887679053</v>
-      </c>
-    </row>
-    <row r="5" spans="6:14" x14ac:dyDescent="0.25">
+        <v>6.0419443634532097E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.10736230046336399</v>
+      </c>
+    </row>
+    <row r="5" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8">
-        <v>-1.17600177942001E-3</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6.2124589887794499E-2</v>
+      <c r="G5" s="7">
+        <v>-1.10045643861477E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6.9440244762699097E-2</v>
       </c>
       <c r="I5" s="6">
-        <v>-2.3593020460148601E-4</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.48262038127673401</v>
+        <v>-2.5397398243427402E-4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.42706990167013997</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.4733160273823701E-4</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0.63059990068907201</v>
-      </c>
-      <c r="M5" s="8">
-        <v>-2.9783301514363098E-4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7.3404614853157094E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="6:14" x14ac:dyDescent="0.25">
+        <v>-1.84675361207923E-4</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.531830779944515</v>
+      </c>
+      <c r="M5" s="7">
+        <v>-3.1496397162757102E-4</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4.57049695396834E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="6">
-        <v>2.1662649181502901E-4</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.58132454594216298</v>
+        <v>2.2601908112923299E-4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.55911585867755098</v>
       </c>
       <c r="I6" s="6">
-        <v>-3.58419671079631E-4</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.13229264125516799</v>
+        <v>-3.4549290493943603E-4</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.13840809801935899</v>
       </c>
       <c r="K6" s="6">
-        <v>-3.2065545191355398E-4</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.16122437355667599</v>
+        <v>-3.2822245005917897E-4</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.14212149804720001</v>
       </c>
       <c r="M6" s="6">
-        <v>1.00911641346868E-4</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0.36197807652109898</v>
-      </c>
-    </row>
-    <row r="7" spans="6:14" x14ac:dyDescent="0.25">
+        <v>8.4645578814520998E-5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.43410909590959001</v>
+      </c>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6">
-        <v>1.41087987977419E-3</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.211120174293496</v>
+        <v>1.2053552397983201E-3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.25922388624984599</v>
       </c>
       <c r="I7" s="6">
-        <v>-2.8400326362119601E-4</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.71929292387425003</v>
+        <v>-3.30763589474321E-4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.66238052924476498</v>
       </c>
       <c r="K7" s="6">
-        <v>-5.63984038795076E-4</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.41697126459254502</v>
-      </c>
-      <c r="M7" s="8">
-        <v>-5.6608343836833804E-4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>6.6118248956879497E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="6:14" x14ac:dyDescent="0.25">
+        <v>-5.5367703775404797E-4</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.402235945395511</v>
+      </c>
+      <c r="M7" s="7">
+        <v>-4.9935886973121997E-4</v>
+      </c>
+      <c r="N7" s="6">
+        <v>9.6571203020865207E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8">
-        <v>3.08351439372004E-3</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3.1987383630021501E-2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>-1.8139375154269399E-3</v>
-      </c>
-      <c r="J8" s="7">
-        <v>4.9068267623000497E-2</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1.5169191439037299E-3</v>
-      </c>
-      <c r="L8" s="7">
-        <v>5.8565366096782298E-2</v>
+      <c r="G8" s="7">
+        <v>2.9338924231190801E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3.2244392188622698E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-1.7743627724347299E-3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4.6465152657829599E-2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.47250845605967E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <v>5.3775381750784501E-2</v>
       </c>
       <c r="M8" s="6">
-        <v>2.13407458517868E-4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0.55380950692425102</v>
-      </c>
-    </row>
-    <row r="9" spans="6:14" x14ac:dyDescent="0.25">
+        <v>2.7561653793124101E-4</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.427966757220553</v>
+      </c>
+    </row>
+    <row r="9" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="6">
-        <v>1.40128963646354E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.22340601355231399</v>
+        <v>1.2461098394402501E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.252849951938666</v>
       </c>
       <c r="I9" s="6">
-        <v>1.13221210932273E-2</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.134141343884635</v>
+        <v>8.7671589291897292E-3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.22096130010846901</v>
       </c>
       <c r="K9" s="6">
-        <v>-1.06072548408922E-2</v>
-      </c>
-      <c r="L9" s="7">
-        <v>9.8777493766876195E-2</v>
+        <v>-1.0240008023311299E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>9.7971644279920694E-2</v>
       </c>
       <c r="M9" s="6">
-        <v>-1.26934167282053E-3</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0.68675206255393095</v>
-      </c>
-    </row>
-    <row r="10" spans="6:14" x14ac:dyDescent="0.25">
+        <v>-1.9197013876230001E-4</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.94884178900390204</v>
+      </c>
+    </row>
+    <row r="10" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8">
-        <v>2.1610811051324501E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3.6363340671368398E-4</v>
-      </c>
-      <c r="I10" s="8">
-        <v>-6.7038936530973304E-3</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8.1595432794132894E-2</v>
+      <c r="G10" s="7">
+        <v>2.1670468161437501E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.47302527078373E-4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-6.17001403928631E-3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>9.7758989413749706E-2</v>
       </c>
       <c r="K10" s="6">
-        <v>2.6628267269102998E-3</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0.37566889617141702</v>
+        <v>2.7946352789924899E-3</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.33689372922976901</v>
       </c>
       <c r="M10" s="6">
-        <v>-1.8068853329112899E-3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0.20461208356796901</v>
-      </c>
-    </row>
-    <row r="11" spans="6:14" x14ac:dyDescent="0.25">
+        <v>-1.6500595493859501E-3</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.23053604540325601</v>
+      </c>
+    </row>
+    <row r="11" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8">
-        <v>3.5953895879524203E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5.4601971126019597E-2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1.51960039501724E-2</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.104994137312897</v>
+      <c r="G11" s="7">
+        <v>3.4389725855347997E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5.1378098801773998E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.5166942660312601E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8.3283898393472194E-2</v>
       </c>
       <c r="K11" s="6">
-        <v>9.7163599314446401E-4</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.90495095632115297</v>
+        <v>1.9459716922566701E-3</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.79990420142135399</v>
       </c>
       <c r="M11" s="6">
-        <v>-2.7896190217822801E-3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0.44045133688073401</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14" x14ac:dyDescent="0.25">
+        <v>-2.4714097669291299E-3</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.47762030544295803</v>
+      </c>
+    </row>
+    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="8">
-        <v>-2.0106318970175702E-3</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4.1295646664036997E-2</v>
-      </c>
-      <c r="I12" s="8">
-        <v>-1.3755329504631501E-3</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1.8271626904789399E-2</v>
+      <c r="G12" s="7">
+        <v>-1.81730108451336E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.45059447572645E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>-1.1803233026868401E-3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.88957282206471E-2</v>
       </c>
       <c r="K12" s="6">
-        <v>2.92165526037263E-4</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0.605309799684837</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1.01344816156921E-3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2.72496940487144E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="6:14" x14ac:dyDescent="0.25">
+        <v>2.9410595761765397E-4</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.57673191648564703</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9.8286617164098592E-4</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1.4650286082684301E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="6">
-        <v>-5.5099676033504904E-3</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.21490891860476399</v>
+        <v>-4.4614159191539802E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.28033437943262202</v>
       </c>
       <c r="I13" s="6">
-        <v>-3.64038878058907E-3</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0.22501878178363599</v>
+        <v>-2.2544694009922401E-3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.410133165425279</v>
       </c>
       <c r="K13" s="6">
-        <v>1.4474042103742599E-3</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0.57174502809548899</v>
+        <v>1.30875217368381E-3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.57736454785449998</v>
       </c>
       <c r="M13" s="6">
-        <v>8.2883497034209495E-4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0.52167367150408395</v>
-      </c>
-    </row>
-    <row r="14" spans="6:14" x14ac:dyDescent="0.25">
+        <v>1.98071630623989E-4</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.86842790499650702</v>
+      </c>
+    </row>
+    <row r="14" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="8">
-        <v>-3.6569398379739402E-4</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2.41143816419374E-2</v>
+      <c r="G14" s="7">
+        <v>-3.9184775912284799E-4</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.2483136544993801E-2</v>
       </c>
       <c r="I14" s="6">
-        <v>-4.4068430863961499E-5</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0.64697555911980897</v>
+        <v>-7.5064526344808502E-5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.423468746467215</v>
       </c>
       <c r="K14" s="6">
-        <v>7.0518552070188695E-5</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0.43694418651232902</v>
+        <v>6.7805372852970197E-5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.432219501676253</v>
       </c>
       <c r="M14" s="6">
-        <v>1.6227189412579299E-5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0.69078929173752701</v>
-      </c>
-    </row>
-    <row r="15" spans="6:14" x14ac:dyDescent="0.25">
+        <v>1.9942477023789999E-5</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.61133787392521</v>
+      </c>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="12">
-        <v>7.1778429335546097E-3</v>
+        <v>7.3274210925462404E-3</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="13">
-        <v>3.3565806571285101E-3</v>
-      </c>
-      <c r="J15" s="13"/>
+      <c r="I15" s="12">
+        <v>3.052338285356E-3</v>
+      </c>
+      <c r="J15" s="12"/>
       <c r="K15" s="12">
-        <v>1.5469778236560901E-3</v>
+        <v>1.5464924983051799E-3</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12">
-        <v>5.2619385057470699E-3</v>
+        <v>5.6382858691255101E-3</v>
       </c>
       <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="12">
-        <v>0.26024008738325799</v>
+        <v>0.276982995183647</v>
       </c>
       <c r="H16" s="12"/>
-      <c r="I16" s="13">
-        <v>0.19970410189270499</v>
-      </c>
-      <c r="J16" s="13"/>
+      <c r="I16" s="12">
+        <v>0.20400477363039701</v>
+      </c>
+      <c r="J16" s="12"/>
       <c r="K16" s="12">
-        <v>-4.0984919660506901E-2</v>
+        <v>-3.0241879996667401E-2</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12">
-        <v>0.30677681414442398</v>
+        <v>0.31560096396068099</v>
       </c>
       <c r="N16" s="12"/>
     </row>
@@ -2572,213 +2669,313 @@
       <c r="F17" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="9"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F23" s="15" t="s">
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="12">
+        <v>400</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11">
+        <v>400</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11">
+        <v>400</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11">
+        <v>400</v>
+      </c>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="12">
+        <v>9600</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11">
+        <v>9600</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
+        <v>9600</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11">
+        <v>9600</v>
+      </c>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F26" s="11" t="s">
+    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F23:L24"/>
-    <mergeCell ref="F26:L28"/>
-    <mergeCell ref="F29:L30"/>
-    <mergeCell ref="F31:L32"/>
+  <mergeCells count="48">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F34:L35"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F26:L27"/>
+    <mergeCell ref="F29:L31"/>
+    <mergeCell ref="F32:L33"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I15:J15"/>
@@ -2790,21 +2987,6 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
